--- a/fm/inc/fault_export_template.xlsx
+++ b/fm/inc/fault_export_template.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (Personal)\TRANSFER\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10620" yWindow="12100" windowWidth="33600" windowHeight="12180"/>
+    <workbookView xWindow="10620" yWindow="12105" windowWidth="33600" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="fault export" sheetId="1" r:id="rId1"/>
     <sheet name="equipment" sheetId="2" r:id="rId2"/>
     <sheet name="centres" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,10 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="71">
-  <si>
-    <t>Fault ID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="73">
   <si>
     <t>Reporter ID</t>
   </si>
@@ -38,12 +40,6 @@
     <t>Type of Fault</t>
   </si>
   <si>
-    <t>Fault Description</t>
-  </si>
-  <si>
-    <t>Action Taken</t>
-  </si>
-  <si>
     <t>DOH Action</t>
   </si>
   <si>
@@ -234,6 +230,21 @@
   </si>
   <si>
     <t>Last update</t>
+  </si>
+  <si>
+    <t>tomo</t>
+  </si>
+  <si>
+    <t>Fault number</t>
+  </si>
+  <si>
+    <t>Fault</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Equipment Satisfaction</t>
   </si>
 </sst>
 </file>
@@ -793,10 +804,9 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -811,9 +821,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="18" fillId="0" borderId="11" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="18" fillId="0" borderId="11" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -831,6 +838,15 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="11" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="47">
@@ -888,6 +904,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -935,7 +954,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -970,7 +989,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1179,187 +1198,180 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF9"/>
+  <dimension ref="A1:AG9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="Y2" sqref="Y2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.83203125" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="5" max="5" width="20.5" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" customWidth="1"/>
     <col min="10" max="11" width="11" customWidth="1"/>
-    <col min="12" max="12" width="11.1640625" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" customWidth="1"/>
     <col min="13" max="13" width="11" customWidth="1"/>
-    <col min="15" max="15" width="10.6640625" customWidth="1"/>
-    <col min="16" max="16" width="12.1640625" customWidth="1"/>
-    <col min="17" max="17" width="11.5" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" customWidth="1"/>
+    <col min="16" max="16" width="12.140625" customWidth="1"/>
+    <col min="17" max="17" width="11.42578125" customWidth="1"/>
     <col min="18" max="18" width="12" customWidth="1"/>
-    <col min="19" max="19" width="11.5" customWidth="1"/>
-    <col min="20" max="20" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.5" customWidth="1"/>
-    <col min="24" max="24" width="10.1640625" customWidth="1"/>
-    <col min="25" max="25" width="11.33203125" customWidth="1"/>
-    <col min="26" max="26" width="11.6640625" customWidth="1"/>
-    <col min="27" max="27" width="14" customWidth="1"/>
-    <col min="31" max="32" width="10.83203125" customWidth="1"/>
+    <col min="19" max="19" width="11.42578125" customWidth="1"/>
+    <col min="20" max="20" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.7109375" customWidth="1"/>
+    <col min="24" max="25" width="11" customWidth="1"/>
+    <col min="26" max="26" width="11.28515625" customWidth="1"/>
+    <col min="27" max="27" width="11.7109375" style="1" customWidth="1"/>
+    <col min="28" max="28" width="14" style="1" customWidth="1"/>
+    <col min="29" max="29" width="8.85546875" style="1"/>
+    <col min="32" max="33" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="56">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:33" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="O1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="P1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="S1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="T1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4" t="s">
+      <c r="U1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="V1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="W1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="X1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="Y1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="AA1" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="AB1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="AC1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AD1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AE1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AF1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="AC1" s="13" t="s">
+      <c r="AG1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="AD1" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="AE1" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="AF1" s="5" t="s">
-        <v>26</v>
-      </c>
     </row>
-    <row r="2" spans="1:32">
-      <c r="A2" s="3"/>
-      <c r="B2" s="6"/>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="5"/>
     </row>
-    <row r="3" spans="1:32">
-      <c r="A3" s="3"/>
-      <c r="B3" s="6"/>
-      <c r="Z3" s="1"/>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="2"/>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="5"/>
     </row>
-    <row r="4" spans="1:32">
-      <c r="A4" s="3"/>
-      <c r="B4" s="6"/>
-      <c r="Z4" s="1"/>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="5"/>
     </row>
-    <row r="5" spans="1:32">
-      <c r="A5" s="3"/>
-      <c r="B5" s="6"/>
-      <c r="Z5" s="1"/>
-      <c r="AA5" s="2"/>
-      <c r="AB5" s="2"/>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="5"/>
     </row>
-    <row r="9" spans="1:32">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="6"/>
-      <c r="W9" s="6"/>
-      <c r="X9" s="6"/>
-      <c r="Y9" s="6"/>
-      <c r="Z9" s="9"/>
-      <c r="AA9" s="9"/>
-      <c r="AB9" s="9"/>
-      <c r="AC9" s="7"/>
-      <c r="AD9" s="7"/>
-      <c r="AE9" s="15"/>
-      <c r="AF9" s="14"/>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="16"/>
+      <c r="AB9" s="16"/>
+      <c r="AC9" s="16"/>
+      <c r="AD9" s="6"/>
+      <c r="AE9" s="6"/>
+      <c r="AF9" s="13"/>
+      <c r="AG9" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1370,240 +1382,250 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T8"/>
+  <dimension ref="A1:U8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD9"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" customWidth="1"/>
-    <col min="3" max="3" width="11.1640625" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" customWidth="1"/>
-    <col min="6" max="6" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" customWidth="1"/>
-    <col min="10" max="10" width="12.5" customWidth="1"/>
-    <col min="12" max="12" width="11.6640625" customWidth="1"/>
-    <col min="13" max="13" width="12.5" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" customWidth="1"/>
+    <col min="13" max="13" width="12.42578125" customWidth="1"/>
     <col min="14" max="14" width="17" customWidth="1"/>
-    <col min="16" max="16" width="11.6640625" customWidth="1"/>
+    <col min="17" max="17" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="42">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="O1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="P1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="R1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="S1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="T1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="U1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="R1" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>46</v>
-      </c>
     </row>
-    <row r="2" spans="1:20">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="12"/>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="10"/>
     </row>
-    <row r="3" spans="1:20">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="12"/>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="10"/>
     </row>
-    <row r="4" spans="1:20">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="12"/>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="10"/>
     </row>
-    <row r="5" spans="1:20">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="12"/>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="10"/>
     </row>
-    <row r="6" spans="1:20">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="12"/>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="14"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="10"/>
     </row>
-    <row r="7" spans="1:20">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="12"/>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="10"/>
     </row>
-    <row r="8" spans="1:20">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="12"/>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1623,89 +1645,89 @@
       <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="31.5" customWidth="1"/>
+    <col min="3" max="3" width="31.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="56">
-      <c r="A1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:26" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="O1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="P1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="Q1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="R1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="S1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="T1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="U1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="V1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="W1" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="X1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="Y1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="V1" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="W1" s="4" t="s">
+      <c r="Z1" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z1" s="4" t="s">
-        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/fm/inc/fault_export_template.xlsx
+++ b/fm/inc/fault_export_template.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (Personal)\TRANSFER\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="10620" yWindow="12105" windowWidth="33600" windowHeight="12180"/>
+    <workbookView xWindow="9140" yWindow="2460" windowWidth="38080" windowHeight="16100"/>
   </bookViews>
   <sheets>
-    <sheet name="fault export" sheetId="1" r:id="rId1"/>
-    <sheet name="equipment" sheetId="2" r:id="rId2"/>
-    <sheet name="centres" sheetId="3" r:id="rId3"/>
+    <sheet name="Faults" sheetId="1" r:id="rId1"/>
+    <sheet name="Equipment" sheetId="2" r:id="rId2"/>
+    <sheet name="Centres" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -26,10 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="73">
-  <si>
-    <t>Reporter ID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
   <si>
     <t>Equipment Code</t>
   </si>
@@ -82,21 +74,9 @@
     <t>Date of Fault</t>
   </si>
   <si>
-    <t>Date of Form</t>
-  </si>
-  <si>
     <t>Date of Entry</t>
   </si>
   <si>
-    <t>Enquiery to Supplier</t>
-  </si>
-  <si>
-    <t>Supplier Act</t>
-  </si>
-  <si>
-    <t>Supplier Comment</t>
-  </si>
-  <si>
     <t>MDA Notified</t>
   </si>
   <si>
@@ -109,9 +89,6 @@
     <t>type of equipment</t>
   </si>
   <si>
-    <t>x-ray subtype digital</t>
-  </si>
-  <si>
     <t>supplier</t>
   </si>
   <si>
@@ -154,15 +131,6 @@
     <t>servicing agent</t>
   </si>
   <si>
-    <t>NOF</t>
-  </si>
-  <si>
-    <t>NOF DATE</t>
-  </si>
-  <si>
-    <t>Trust ID</t>
-  </si>
-  <si>
     <t>Trust</t>
   </si>
   <si>
@@ -175,15 +143,6 @@
     <t>Region</t>
   </si>
   <si>
-    <t>New Region</t>
-  </si>
-  <si>
-    <t>2003 Region</t>
-  </si>
-  <si>
-    <t>old code</t>
-  </si>
-  <si>
     <t>address1</t>
   </si>
   <si>
@@ -220,18 +179,6 @@
     <t>active</t>
   </si>
   <si>
-    <t>main centre</t>
-  </si>
-  <si>
-    <t>satellites of this centre</t>
-  </si>
-  <si>
-    <t>this centre a satellite of</t>
-  </si>
-  <si>
-    <t>Last update</t>
-  </si>
-  <si>
     <t>tomo</t>
   </si>
   <si>
@@ -245,12 +192,21 @@
   </si>
   <si>
     <t>Equipment Satisfaction</t>
+  </si>
+  <si>
+    <t>Date of Last edit</t>
+  </si>
+  <si>
+    <t>Comment</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
+  </numFmts>
   <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -416,7 +372,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -599,12 +555,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -755,7 +705,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="47">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -803,10 +753,11 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -820,9 +771,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="11" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -830,26 +778,27 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="43"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="11" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="11" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="11" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="47">
+  <cellStyles count="49">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -879,12 +828,14 @@
     <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -954,7 +905,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -989,7 +940,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1198,180 +1149,148 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG9"/>
+  <dimension ref="A1:X9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="Y2" sqref="Y2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U1" sqref="U1:W1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="20.42578125" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" customWidth="1"/>
-    <col min="10" max="11" width="11" customWidth="1"/>
-    <col min="12" max="12" width="11.140625" customWidth="1"/>
-    <col min="13" max="13" width="11" customWidth="1"/>
-    <col min="15" max="15" width="10.7109375" customWidth="1"/>
-    <col min="16" max="16" width="12.140625" customWidth="1"/>
-    <col min="17" max="17" width="11.42578125" customWidth="1"/>
-    <col min="18" max="18" width="12" customWidth="1"/>
-    <col min="19" max="19" width="11.42578125" customWidth="1"/>
-    <col min="20" max="20" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.7109375" customWidth="1"/>
-    <col min="24" max="25" width="11" customWidth="1"/>
-    <col min="26" max="26" width="11.28515625" customWidth="1"/>
-    <col min="27" max="27" width="11.7109375" style="1" customWidth="1"/>
-    <col min="28" max="28" width="14" style="1" customWidth="1"/>
-    <col min="29" max="29" width="8.85546875" style="1"/>
-    <col min="32" max="33" width="10.85546875" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" customWidth="1"/>
+    <col min="5" max="6" width="11" customWidth="1"/>
+    <col min="7" max="7" width="11.1640625" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" customWidth="1"/>
+    <col min="11" max="11" width="12.1640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12" customWidth="1"/>
+    <col min="13" max="13" width="11.5" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.6640625" customWidth="1"/>
+    <col min="18" max="19" width="11" customWidth="1"/>
+    <col min="20" max="20" width="11.33203125" customWidth="1"/>
+    <col min="21" max="21" width="11.6640625" style="14" customWidth="1"/>
+    <col min="22" max="22" width="14" style="14" customWidth="1"/>
+    <col min="23" max="23" width="12.33203125" style="14" customWidth="1"/>
+    <col min="24" max="24" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="75" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:24" ht="56">
+      <c r="A1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3" t="s">
+      <c r="E1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="L1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="K1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="O1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="P1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="Q1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="R1" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="S1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="X1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA1" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="AC1" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD1" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="AE1" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="AF1" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG1" s="4" t="s">
-        <v>23</v>
-      </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="5"/>
+    <row r="2" spans="1:24">
+      <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="5"/>
+    <row r="3" spans="1:24">
+      <c r="A3" s="1"/>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="5"/>
+    <row r="4" spans="1:24">
+      <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="5"/>
+    <row r="5" spans="1:24">
+      <c r="A5" s="1"/>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
+    <row r="9" spans="1:24">
+      <c r="A9" s="4"/>
       <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
-      <c r="W9" s="5"/>
-      <c r="X9" s="5"/>
-      <c r="Y9" s="5"/>
-      <c r="Z9" s="5"/>
-      <c r="AA9" s="16"/>
-      <c r="AB9" s="16"/>
-      <c r="AC9" s="16"/>
-      <c r="AD9" s="6"/>
-      <c r="AE9" s="6"/>
-      <c r="AF9" s="13"/>
-      <c r="AG9" s="12"/>
+      <c r="C9" s="5"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="15"/>
+      <c r="W9" s="15"/>
+      <c r="X9" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1382,250 +1301,219 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U8"/>
+  <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="S1" sqref="S1:T1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="11.140625" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" customWidth="1"/>
-    <col min="13" max="13" width="12.42578125" customWidth="1"/>
-    <col min="14" max="14" width="17" customWidth="1"/>
-    <col min="17" max="17" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1"/>
+    <col min="9" max="9" width="12.5" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" customWidth="1"/>
+    <col min="12" max="12" width="13.6640625" customWidth="1"/>
+    <col min="13" max="13" width="17" customWidth="1"/>
+    <col min="16" max="16" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:18" ht="28">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="O1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="Q1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="R1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>43</v>
-      </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
+    <row r="2" spans="1:18">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
       <c r="J2" s="8"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="10"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="10"/>
+    <row r="3" spans="1:18">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
+    <row r="4" spans="1:18">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
       <c r="J4" s="8"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="10"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
+    <row r="5" spans="1:18">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
       <c r="J5" s="8"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="10"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
+    <row r="6" spans="1:18">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
       <c r="J6" s="8"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="14"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="10"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="10"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="10"/>
+    <row r="7" spans="1:18">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="10"/>
+    <row r="8" spans="1:18">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1639,99 +1527,79 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z1"/>
+  <dimension ref="A1:R1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="3" max="3" width="31.42578125" customWidth="1"/>
+    <col min="2" max="2" width="31.5" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" customWidth="1"/>
+    <col min="15" max="15" width="10.1640625" customWidth="1"/>
+    <col min="18" max="18" width="35.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="60" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:18" ht="28">
+      <c r="A1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="O1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="P1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="Q1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="P1" s="3" t="s">
+      <c r="R1" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
